--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5109489051094891</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6334841628959276</v>
+        <v>0.5067873303167421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.4349514563106796</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5911119755942753</v>
+        <v>0.3945660408263549</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6138613861386139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8454545454545455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.7112810707456979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5749897161661869</v>
+        <v>0.7686343068696009</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6514285714285715</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5181818181818182</v>
+        <v>0.8590909090909091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5772151898734177</v>
+        <v>0.7761806981519508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5459070341423282</v>
+        <v>0.8311188811188812</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.8663594470046083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5067873303167421</v>
+        <v>0.8506787330316742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5530864197530865</v>
+        <v>0.8584474885844749</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5474496092143151</v>
+        <v>0.8892842451665982</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4824902723735409</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5610859728506787</v>
+        <v>0.7737556561085973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5188284518828451</v>
+        <v>0.8402948402948403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5654668860551213</v>
+        <v>0.8566022213081037</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6221412516456744</v>
+        <v>0.6976786442689213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5529987659399425</v>
+        <v>0.7671534348004936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5762906587665163</v>
+        <v>0.7242311108175287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5649850442344453</v>
+        <v>0.7480411390579078</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4385245901639344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5067873303167421</v>
+        <v>0.5323383084577115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4349514563106796</v>
+        <v>0.4808988764044944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3945660408263549</v>
+        <v>0.4160169302740031</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6138613861386139</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.6069651741293532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7112810707456979</v>
+        <v>0.6404199475065617</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7686343068696009</v>
+        <v>0.6396623845944408</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7078651685393258</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8590909090909091</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7761806981519508</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8311188811188812</v>
+        <v>0.745031063587535</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8663594470046083</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8506787330316742</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8584474885844749</v>
+        <v>0.5258215962441315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8892842451665982</v>
+        <v>0.6761691542288557</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7737556561085973</v>
+        <v>0.5870646766169154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8402948402948403</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8566022213081037</v>
+        <v>0.1802238805970149</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6976786442689213</v>
+        <v>0.5604485559091681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7671534348004936</v>
+        <v>0.5617512437810944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7242311108175287</v>
+        <v>0.5513480018955138</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7480411390579078</v>
+        <v>0.5314206826563699</v>
       </c>
     </row>
   </sheetData>
